--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
   <si>
     <t>Results for Rule Based Question and Answering Model for Urdu</t>
   </si>
@@ -70,12 +70,21 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Harvard_University</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,14 +127,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,57 +416,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,10 +499,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -523,10 +532,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -553,10 +562,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -586,10 +595,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -811,79 +820,477 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="J19">
-        <f>SUM(J4:J18)</f>
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <f>SUM(K4:K18)</f>
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <f>SUM(J19:K19)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B32" s="5"/>
+      <c r="J32">
+        <f>SUM(J4:J31)</f>
+        <v>91</v>
+      </c>
+      <c r="K32">
+        <f>SUM(K4:K31)</f>
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <f>SUM(J32:K32)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="J20" s="5">
-        <f>(J19/L19)</f>
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="K20" s="5">
-        <f>(K19/L19)</f>
-        <v>0.10638297872340426</v>
+      <c r="B33" s="5"/>
+      <c r="J33" s="2">
+        <f>(J32/L32)</f>
+        <v>0.89215686274509809</v>
+      </c>
+      <c r="K33" s="2">
+        <f>(K32/L32)</f>
+        <v>0.10784313725490197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="33">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="20">
   <si>
     <t>Results for Rule Based Question and Answering Model for Urdu</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Oxygen</t>
+  </si>
+  <si>
+    <t>French_and_Indian_War</t>
   </si>
 </sst>
 </file>
@@ -122,13 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,55 +420,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,10 +501,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -532,10 +534,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -562,10 +564,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -595,10 +597,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -625,10 +627,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -658,10 +660,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -691,10 +693,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -724,10 +726,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -754,10 +756,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -787,10 +789,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -820,10 +822,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -853,10 +855,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -883,10 +885,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -913,10 +915,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -946,10 +948,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>15</v>
       </c>
@@ -973,10 +975,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>1</v>
       </c>
@@ -1006,10 +1008,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>2</v>
       </c>
@@ -1039,10 +1041,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>3</v>
       </c>
@@ -1072,10 +1074,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>4</v>
       </c>
@@ -1105,10 +1107,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>5</v>
       </c>
@@ -1132,10 +1134,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>1</v>
       </c>
@@ -1165,10 +1167,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>2</v>
       </c>
@@ -1201,63 +1203,254 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B26" s="3"/>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B27" s="3"/>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B28" s="3"/>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="3"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B30" s="3"/>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B31" s="3"/>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="J32">
         <f>SUM(J4:J31)</f>
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <f>SUM(K4:K31)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L32">
         <f>SUM(J32:K32)</f>
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="4"/>
       <c r="J33" s="2">
         <f>(J32/L32)</f>
-        <v>0.89215686274509809</v>
+        <v>0.89393939393939392</v>
       </c>
       <c r="K33" s="2">
         <f>(K32/L32)</f>
-        <v>0.10784313725490197</v>
+        <v>0.10606060606060606</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A33:B33"/>
@@ -1274,23 +1467,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1434,23 +1434,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A33:B33"/>
@@ -1467,6 +1450,23 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
